--- a/Dynamic Dashboard.xlsx
+++ b/Dynamic Dashboard.xlsx
@@ -16248,6 +16248,392 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I36:J37" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="8"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="14">
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="4"/>
+        <item x="1"/>
+        <item h="1" x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="12"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="6"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Cuenta de Nombre" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Cuenta de Fecha de baja" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I29:J30" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="8"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="14">
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="4"/>
+        <item x="1"/>
+        <item h="1" x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="12"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="Cuenta de Nombre" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Cuenta de Fecha de baja" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Contrataciones por mes" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="M19:N26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="12">
+        <item x="8"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="14">
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="4"/>
+        <item x="1"/>
+        <item h="1" x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="12"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Nombre" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="3" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Liberados" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A23:A24" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -16526,7 +16912,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Ubicados" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A14:A15" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -16797,550 +17183,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Puesto" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
-  <location ref="M5:N13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item x="8"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="14">
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="4"/>
-        <item x="1"/>
-        <item h="1" x="5"/>
-        <item h="1" x="8"/>
-        <item h="1" x="0"/>
-        <item h="1" x="12"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
-      <items count="8">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="8">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Nombre" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I36:J37" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="8"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="14">
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="4"/>
-        <item x="1"/>
-        <item h="1" x="5"/>
-        <item h="1" x="8"/>
-        <item h="1" x="0"/>
-        <item h="1" x="12"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="5"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item h="1" x="6"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Cuenta de Nombre" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Cuenta de Fecha de baja" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I29:J30" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="8"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="14">
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="4"/>
-        <item x="1"/>
-        <item h="1" x="5"/>
-        <item h="1" x="8"/>
-        <item h="1" x="0"/>
-        <item h="1" x="12"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="2">
-    <dataField name="Cuenta de Nombre" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Cuenta de Fecha de baja" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Contrataciones por mes" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="M19:N26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="12">
-        <item x="8"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="14">
-        <item h="1" x="6"/>
-        <item h="1" x="2"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="3"/>
-        <item h="1" x="9"/>
-        <item h="1" x="4"/>
-        <item x="1"/>
-        <item h="1" x="5"/>
-        <item h="1" x="8"/>
-        <item h="1" x="0"/>
-        <item h="1" x="12"/>
-        <item h="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Nombre" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="3" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Contratados" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A7:A8" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
@@ -18005,6 +17848,163 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Puesto" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="5">
+  <location ref="M5:N13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="8"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="14">
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="3"/>
+        <item h="1" x="9"/>
+        <item h="1" x="4"/>
+        <item x="1"/>
+        <item h="1" x="5"/>
+        <item h="1" x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="12"/>
+        <item h="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending">
+      <items count="8">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Nombre" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Rotacion" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A29:A30" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
@@ -38772,7 +38772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -39163,7 +39163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
